--- a/biology/Médecine/TLR3/TLR3.xlsx
+++ b/biology/Médecine/TLR3/TLR3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le TLR3 (ou CD283) est une protéine de type récepteur de type Toll intervenant dans l'immunité inné. Il s'agit également d'une cluster de différenciation. Son gène est le TLR3 situé sur le chromosome 4 humain.
 </t>
@@ -511,9 +523,11 @@
           <t>Rôles</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il participe à l'immunité antivirale par l'intermédiaire de l'interféron de type 2[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il participe à l'immunité antivirale par l'intermédiaire de l'interféron de type 2.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>En médecine</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les porteurs de certains variants du gène ont une plus grande susceptibilité à une atteinte virale[6].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les porteurs de certains variants du gène ont une plus grande susceptibilité à une atteinte virale.
 </t>
         </is>
       </c>
